--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按登记注册类型分限额以上批发业企业商品进口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按登记注册类型分限额以上批发业企业商品进口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1266 +598,1186 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.23165</v>
+      </c>
+      <c r="C2" t="n">
+        <v>327.19896</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.61013</v>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4309.84389</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8.91221</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12829.27937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.58848</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2897.22063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1321.61861</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18.7068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4660.21737</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12.08401</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4317.70275</v>
+      </c>
       <c r="Q2" t="n">
-        <v>8466.4</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+        <v>18463</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5631.4625</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.11292</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45.34312</v>
+      </c>
+      <c r="U2" t="n">
+        <v>973.5211</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.68636</v>
+      </c>
+      <c r="W2" t="n">
+        <v>925.3787</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2940.58517</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23.52405</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2815.53476</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>33.75463</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>67.77173000000001</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>28.20749</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.15058</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1096.90437</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>212.1385</v>
+      </c>
       <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.6925</v>
+      </c>
+      <c r="C3" t="n">
+        <v>453.7357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>136.7967</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4259</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6969.3994</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>12.8449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16026.0092</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3064</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2817.316</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1124.3459</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25.7476</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7653.2937</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.5758</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7179.8637</v>
+      </c>
       <c r="Q3" t="n">
-        <v>14009.1</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+        <v>25383.8451</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8093.7453</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1594</v>
+      </c>
+      <c r="T3" t="n">
+        <v>113.2117</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1704.5423</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.6656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1589.5056</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3449.1484</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>19.6125</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3243.7828</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>38.0358</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>147.7174</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>38.899</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>24.8195</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1297.6221</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>167.6621</v>
+      </c>
       <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.92525</v>
+        <v>5.56279</v>
       </c>
       <c r="C4" t="n">
-        <v>208.49572</v>
+        <v>358.9307</v>
       </c>
       <c r="D4" t="n">
-        <v>26.30528</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>143.54536</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.47708</v>
+      </c>
       <c r="F4" t="n">
-        <v>3427.47083</v>
+        <v>7886.78575</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>5.07778</v>
+        <v>4.61757</v>
       </c>
       <c r="I4" t="n">
-        <v>9252.0802</v>
+        <v>18338.51982</v>
       </c>
       <c r="J4" t="n">
-        <v>33.47164</v>
+        <v>0.71751</v>
       </c>
       <c r="K4" t="n">
-        <v>1699.00939</v>
+        <v>3819.95351</v>
       </c>
       <c r="L4" t="n">
-        <v>847.7276900000001</v>
+        <v>1160.61244</v>
       </c>
       <c r="M4" t="n">
-        <v>24.08296</v>
+        <v>15.34849</v>
       </c>
       <c r="N4" t="n">
-        <v>2854.39719</v>
+        <v>8541.2988</v>
       </c>
       <c r="O4" t="n">
-        <v>13.07526</v>
+        <v>8.297140000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>2629.90096</v>
+        <v>8166.03109</v>
       </c>
       <c r="Q4" t="n">
-        <v>12699.1</v>
+        <v>29288.7</v>
       </c>
       <c r="R4" t="n">
-        <v>4275.19852</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.10991</v>
-      </c>
+        <v>9047.39819</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>25.38348</v>
+        <v>187.66249</v>
       </c>
       <c r="U4" t="n">
-        <v>592.67245</v>
+        <v>2408.84145</v>
       </c>
       <c r="V4" t="n">
-        <v>30.22734</v>
+        <v>3.49174</v>
       </c>
       <c r="W4" t="n">
-        <v>535.95172</v>
+        <v>2217.62261</v>
       </c>
       <c r="X4" t="n">
-        <v>2079.71907</v>
+        <v>3798.35906</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.83427</v>
+        <v>5.30994</v>
       </c>
       <c r="Z4" t="n">
-        <v>1979.14756</v>
+        <v>3581.32126</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.90313</v>
+        <v>48.16183</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.83411</v>
+        <v>163.56603</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.63238</v>
+        <v>21.12064</v>
       </c>
       <c r="AD4" t="n">
-        <v>50.55336</v>
+        <v>36.57285</v>
       </c>
       <c r="AE4" t="n">
-        <v>899.91639</v>
+        <v>1282.19158</v>
       </c>
       <c r="AF4" t="n">
-        <v>158.74581</v>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+        <v>189.37863</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.43707</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.23165</v>
+        <v>4.3703</v>
       </c>
       <c r="C5" t="n">
-        <v>327.19896</v>
+        <v>602.93287</v>
       </c>
       <c r="D5" t="n">
-        <v>13.61013</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>21.99627</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.80435</v>
+      </c>
       <c r="F5" t="n">
-        <v>4309.84389</v>
+        <v>10833.32371</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>8.91221</v>
+        <v>1.46679</v>
       </c>
       <c r="I5" t="n">
-        <v>12829.27937</v>
+        <v>22285.98632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.58848</v>
+        <v>0.10083</v>
       </c>
       <c r="K5" t="n">
-        <v>2897.22063</v>
+        <v>2193.09446</v>
       </c>
       <c r="L5" t="n">
-        <v>1321.61861</v>
+        <v>1694.76157</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7068</v>
+        <v>2.2995</v>
       </c>
       <c r="N5" t="n">
-        <v>4660.21737</v>
+        <v>9527.520560000001</v>
       </c>
       <c r="O5" t="n">
-        <v>12.08401</v>
+        <v>14.71856</v>
       </c>
       <c r="P5" t="n">
-        <v>4317.70275</v>
+        <v>8904.69448</v>
       </c>
       <c r="Q5" t="n">
-        <v>18463</v>
+        <v>34812.9</v>
       </c>
       <c r="R5" t="n">
-        <v>5631.4625</v>
+        <v>12528.08528</v>
       </c>
       <c r="S5" t="n">
-        <v>0.11292</v>
+        <v>0.39869</v>
       </c>
       <c r="T5" t="n">
-        <v>45.34312</v>
+        <v>175.22144</v>
       </c>
       <c r="U5" t="n">
-        <v>973.5211</v>
+        <v>2999.36494</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68636</v>
+        <v>2.16094</v>
       </c>
       <c r="W5" t="n">
-        <v>925.3787</v>
+        <v>2821.58387</v>
       </c>
       <c r="X5" t="n">
-        <v>2940.58517</v>
+        <v>5082.81975</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.52405</v>
+        <v>0.18667</v>
       </c>
       <c r="Z5" t="n">
-        <v>2815.53476</v>
+        <v>4848.03641</v>
       </c>
       <c r="AA5" t="n">
-        <v>33.75463</v>
+        <v>5.39726</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.77173000000001</v>
+        <v>229.19941</v>
       </c>
       <c r="AC5" t="n">
-        <v>28.20749</v>
+        <v>8.06629</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.15058</v>
+        <v>26.7114</v>
       </c>
       <c r="AE5" t="n">
-        <v>1096.90437</v>
+        <v>2360.90778</v>
       </c>
       <c r="AF5" t="n">
-        <v>212.1385</v>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+        <v>64.30509000000001</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.19917</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.6925</v>
+        <v>6.32129</v>
       </c>
       <c r="C6" t="n">
-        <v>453.7357</v>
+        <v>902.52829</v>
       </c>
       <c r="D6" t="n">
-        <v>136.7967</v>
+        <v>14.76878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4259</v>
+        <v>169.5835</v>
       </c>
       <c r="F6" t="n">
-        <v>6969.3994</v>
+        <v>10970.59101</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>12.8449</v>
+        <v>1.37345</v>
       </c>
       <c r="I6" t="n">
-        <v>16026.0092</v>
+        <v>21800.51395</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3064</v>
+        <v>0.03263</v>
       </c>
       <c r="K6" t="n">
-        <v>2817.316</v>
+        <v>1848.96521</v>
       </c>
       <c r="L6" t="n">
-        <v>1124.3459</v>
+        <v>1773.52405</v>
       </c>
       <c r="M6" t="n">
-        <v>25.7476</v>
+        <v>0.7435</v>
       </c>
       <c r="N6" t="n">
-        <v>7653.2937</v>
+        <v>10554.42529</v>
       </c>
       <c r="O6" t="n">
-        <v>15.5758</v>
+        <v>6.16328</v>
       </c>
       <c r="P6" t="n">
-        <v>7179.8637</v>
+        <v>9469.82893</v>
       </c>
       <c r="Q6" t="n">
-        <v>25383.8451</v>
+        <v>35455.1</v>
       </c>
       <c r="R6" t="n">
-        <v>8093.7453</v>
+        <v>12744.11506</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1594</v>
+        <v>3.69593</v>
       </c>
       <c r="T6" t="n">
-        <v>113.2117</v>
+        <v>140.42695</v>
       </c>
       <c r="U6" t="n">
-        <v>1704.5423</v>
+        <v>3100.1247</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6656</v>
+        <v>2.10565</v>
       </c>
       <c r="W6" t="n">
-        <v>1589.5056</v>
+        <v>2953.89617</v>
       </c>
       <c r="X6" t="n">
-        <v>3449.1484</v>
+        <v>4133.20275</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.6125</v>
+        <v>3.49132</v>
       </c>
       <c r="Z6" t="n">
-        <v>3243.7828</v>
+        <v>4043.1569</v>
       </c>
       <c r="AA6" t="n">
-        <v>38.0358</v>
+        <v>1.78735</v>
       </c>
       <c r="AB6" t="n">
-        <v>147.7174</v>
+        <v>84.76718</v>
       </c>
       <c r="AC6" t="n">
-        <v>38.899</v>
+        <v>2.4272</v>
       </c>
       <c r="AD6" t="n">
-        <v>24.8195</v>
+        <v>1.91519</v>
       </c>
       <c r="AE6" t="n">
-        <v>1297.6221</v>
+        <v>2969.79218</v>
       </c>
       <c r="AF6" t="n">
-        <v>167.6621</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+        <v>85.32758</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.27762</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.56279</v>
+        <v>6.7052</v>
       </c>
       <c r="C7" t="n">
-        <v>358.9307</v>
+        <v>1018.8037</v>
       </c>
       <c r="D7" t="n">
-        <v>143.54536</v>
+        <v>11.6276</v>
       </c>
       <c r="E7" t="n">
-        <v>2.47708</v>
+        <v>3.4214</v>
       </c>
       <c r="F7" t="n">
-        <v>7886.78575</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>9062.7245</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.6148</v>
+      </c>
       <c r="H7" t="n">
-        <v>4.61757</v>
+        <v>1.8996</v>
       </c>
       <c r="I7" t="n">
-        <v>18338.51982</v>
+        <v>18371.0583</v>
       </c>
       <c r="J7" t="n">
-        <v>0.71751</v>
+        <v>0.1157</v>
       </c>
       <c r="K7" t="n">
-        <v>3819.95351</v>
+        <v>1447.0209</v>
       </c>
       <c r="L7" t="n">
-        <v>1160.61244</v>
+        <v>1250.3087</v>
       </c>
       <c r="M7" t="n">
-        <v>15.34849</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>8541.2988</v>
+        <v>10449.9738</v>
       </c>
       <c r="O7" t="n">
-        <v>8.297140000000001</v>
+        <v>5.9962</v>
       </c>
       <c r="P7" t="n">
-        <v>8166.03109</v>
+        <v>9415.0471</v>
       </c>
       <c r="Q7" t="n">
-        <v>29288.7</v>
+        <v>31249.6</v>
       </c>
       <c r="R7" t="n">
-        <v>9047.39819</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>10313.0327</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.0457</v>
+      </c>
       <c r="T7" t="n">
-        <v>187.66249</v>
+        <v>165.9684</v>
       </c>
       <c r="U7" t="n">
-        <v>2408.84145</v>
+        <v>2428.5688</v>
       </c>
       <c r="V7" t="n">
-        <v>3.49174</v>
+        <v>5.211</v>
       </c>
       <c r="W7" t="n">
-        <v>2217.62261</v>
+        <v>2241.729</v>
       </c>
       <c r="X7" t="n">
-        <v>3798.35906</v>
+        <v>4102.7104</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.30994</v>
+        <v>0.3761</v>
       </c>
       <c r="Z7" t="n">
-        <v>3581.32126</v>
+        <v>4031.2043</v>
       </c>
       <c r="AA7" t="n">
-        <v>48.16183</v>
+        <v>1.7051</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.56603</v>
+        <v>69.4252</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.12064</v>
+        <v>2.8183</v>
       </c>
       <c r="AD7" t="n">
-        <v>36.57285</v>
+        <v>5.3666</v>
       </c>
       <c r="AE7" t="n">
-        <v>1282.19158</v>
+        <v>2373.6495</v>
       </c>
       <c r="AF7" t="n">
-        <v>189.37863</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.43707</v>
-      </c>
+        <v>114.8326</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.3703</v>
+        <v>7.1241</v>
       </c>
       <c r="C8" t="n">
-        <v>602.93287</v>
+        <v>871.7069</v>
       </c>
       <c r="D8" t="n">
-        <v>21.99627</v>
+        <v>0.8418</v>
       </c>
       <c r="E8" t="n">
-        <v>0.80435</v>
+        <v>257.0218</v>
       </c>
       <c r="F8" t="n">
-        <v>10833.32371</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>9267.1165</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.2025</v>
+      </c>
       <c r="H8" t="n">
-        <v>1.46679</v>
+        <v>1.4386</v>
       </c>
       <c r="I8" t="n">
-        <v>22285.98632</v>
+        <v>17436.3277</v>
       </c>
       <c r="J8" t="n">
-        <v>0.10083</v>
+        <v>0.3371</v>
       </c>
       <c r="K8" t="n">
-        <v>2193.09446</v>
+        <v>1082.1596</v>
       </c>
       <c r="L8" t="n">
-        <v>1694.76157</v>
+        <v>1339.8196</v>
       </c>
       <c r="M8" t="n">
-        <v>2.2995</v>
+        <v>0.6667</v>
       </c>
       <c r="N8" t="n">
-        <v>9527.520560000001</v>
+        <v>12153.7755</v>
       </c>
       <c r="O8" t="n">
-        <v>14.71856</v>
+        <v>23.4207</v>
       </c>
       <c r="P8" t="n">
-        <v>8904.69448</v>
+        <v>10994.5021</v>
       </c>
       <c r="Q8" t="n">
-        <v>34812.9</v>
+        <v>32106</v>
       </c>
       <c r="R8" t="n">
-        <v>12528.08528</v>
+        <v>10606.9361</v>
       </c>
       <c r="S8" t="n">
-        <v>0.39869</v>
+        <v>4.3832</v>
       </c>
       <c r="T8" t="n">
-        <v>175.22144</v>
+        <v>125.0765</v>
       </c>
       <c r="U8" t="n">
-        <v>2999.36494</v>
+        <v>2515.8987</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16094</v>
+        <v>4.4357</v>
       </c>
       <c r="W8" t="n">
-        <v>2821.58387</v>
+        <v>2366.8013</v>
       </c>
       <c r="X8" t="n">
-        <v>5082.81975</v>
+        <v>4059.2373</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.18667</v>
+        <v>0.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>4848.03641</v>
+        <v>3999.0634</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.39726</v>
+        <v>0.879</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.19941</v>
+        <v>58.7947</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.06629</v>
+        <v>2.4424</v>
       </c>
       <c r="AD8" t="n">
-        <v>26.7114</v>
+        <v>7.0638</v>
       </c>
       <c r="AE8" t="n">
-        <v>2360.90778</v>
+        <v>1621.7031</v>
       </c>
       <c r="AF8" t="n">
-        <v>64.30509000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>4.19917</v>
-      </c>
+        <v>55.9445</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.32129</v>
+        <v>10.055</v>
       </c>
       <c r="C9" t="n">
-        <v>902.52829</v>
+        <v>640.539</v>
       </c>
       <c r="D9" t="n">
-        <v>14.76878</v>
+        <v>1.194</v>
       </c>
       <c r="E9" t="n">
-        <v>169.5835</v>
+        <v>235.976</v>
       </c>
       <c r="F9" t="n">
-        <v>10970.59101</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1.37345</v>
-      </c>
+        <v>12451.992</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.616</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>21800.51395</v>
+        <v>24208.41</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03263</v>
+        <v>0.569</v>
       </c>
       <c r="K9" t="n">
-        <v>1848.96521</v>
+        <v>930.946</v>
       </c>
       <c r="L9" t="n">
-        <v>1773.52405</v>
+        <v>1654.793</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7435</v>
+        <v>0.118</v>
       </c>
       <c r="N9" t="n">
-        <v>10554.42529</v>
+        <v>13519.363</v>
       </c>
       <c r="O9" t="n">
-        <v>6.16328</v>
+        <v>28.913</v>
       </c>
       <c r="P9" t="n">
-        <v>9469.82893</v>
+        <v>12603.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>35455.1</v>
+        <v>40754</v>
       </c>
       <c r="R9" t="n">
-        <v>12744.11506</v>
+        <v>14106.786</v>
       </c>
       <c r="S9" t="n">
-        <v>3.69593</v>
+        <v>5.523</v>
       </c>
       <c r="T9" t="n">
-        <v>140.42695</v>
+        <v>172.077</v>
       </c>
       <c r="U9" t="n">
-        <v>3100.1247</v>
+        <v>3026.231</v>
       </c>
       <c r="V9" t="n">
-        <v>2.10565</v>
+        <v>11.838</v>
       </c>
       <c r="W9" t="n">
-        <v>2953.89617</v>
+        <v>2790.176</v>
       </c>
       <c r="X9" t="n">
-        <v>4133.20275</v>
+        <v>6138.441</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.49132</v>
+        <v>0.634</v>
       </c>
       <c r="Z9" t="n">
-        <v>4043.1569</v>
+        <v>6045.513</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.78735</v>
+        <v>2.384</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.76718</v>
+        <v>89.911</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.4272</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.91519</v>
+        <v>14.846</v>
       </c>
       <c r="AE9" t="n">
-        <v>2969.79218</v>
+        <v>2966.271</v>
       </c>
       <c r="AF9" t="n">
-        <v>85.32758</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.27762</v>
-      </c>
+        <v>49.239</v>
+      </c>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.7052</v>
+        <v>14.7</v>
       </c>
       <c r="C10" t="n">
-        <v>1018.8037</v>
+        <v>1000.4</v>
       </c>
       <c r="D10" t="n">
-        <v>11.6276</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="n">
-        <v>3.4214</v>
+        <v>207.5</v>
       </c>
       <c r="F10" t="n">
-        <v>9062.7245</v>
+        <v>11926</v>
       </c>
       <c r="G10" t="n">
-        <v>11.6148</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.8996</v>
-      </c>
+        <v>24.3</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>18371.0583</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1157</v>
-      </c>
+        <v>23176.5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1447.0209</v>
+        <v>212.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1250.3087</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.8028999999999999</v>
-      </c>
+        <v>2445.1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>10449.9738</v>
+        <v>15373.5</v>
       </c>
       <c r="O10" t="n">
-        <v>5.9962</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>9415.0471</v>
+        <v>14075.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>31249.6</v>
+        <v>42219.2</v>
       </c>
       <c r="R10" t="n">
-        <v>10313.0327</v>
+        <v>14371.1</v>
       </c>
       <c r="S10" t="n">
-        <v>4.0457</v>
+        <v>0.4</v>
       </c>
       <c r="T10" t="n">
-        <v>165.9684</v>
+        <v>303.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2428.5688</v>
+        <v>3669.2</v>
       </c>
       <c r="V10" t="n">
-        <v>5.211</v>
+        <v>165.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2241.729</v>
+        <v>3175.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4102.7104</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.3761</v>
-      </c>
+        <v>5710.5</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>4031.2043</v>
+        <v>5549.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.7051</v>
+        <v>2.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>69.4252</v>
+        <v>158.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.8183</v>
+        <v>0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.3666</v>
+        <v>20.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>2373.6495</v>
+        <v>2802.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>114.8326</v>
+        <v>58.3</v>
       </c>
       <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.1241</v>
+        <v>20.0694</v>
       </c>
       <c r="C11" t="n">
-        <v>871.7069</v>
+        <v>871.3638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8418</v>
+        <v>0.3442</v>
       </c>
       <c r="E11" t="n">
-        <v>257.0218</v>
+        <v>200.126</v>
       </c>
       <c r="F11" t="n">
-        <v>9267.1165</v>
+        <v>15459.6313</v>
       </c>
       <c r="G11" t="n">
-        <v>15.2025</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.4386</v>
-      </c>
+        <v>6.9852</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>17436.3277</v>
+        <v>28669.4011</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3371</v>
+        <v>0.2075</v>
       </c>
       <c r="K11" t="n">
-        <v>1082.1596</v>
+        <v>191.7945</v>
       </c>
       <c r="L11" t="n">
-        <v>1339.8196</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6667</v>
-      </c>
+        <v>3656.323</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>12153.7755</v>
+        <v>16045.0121</v>
       </c>
       <c r="O11" t="n">
-        <v>23.4207</v>
+        <v>227.6153</v>
       </c>
       <c r="P11" t="n">
-        <v>10994.5021</v>
+        <v>14725.8375</v>
       </c>
       <c r="Q11" t="n">
-        <v>32106</v>
+        <v>48241.8</v>
       </c>
       <c r="R11" t="n">
-        <v>10606.9361</v>
+        <v>19115.9541</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3832</v>
+        <v>2.2923</v>
       </c>
       <c r="T11" t="n">
-        <v>125.0765</v>
+        <v>589.6789</v>
       </c>
       <c r="U11" t="n">
-        <v>2515.8987</v>
+        <v>3527.3625</v>
       </c>
       <c r="V11" t="n">
-        <v>4.4357</v>
+        <v>52.8373</v>
       </c>
       <c r="W11" t="n">
-        <v>2366.8013</v>
+        <v>2875.5687</v>
       </c>
       <c r="X11" t="n">
-        <v>4059.2373</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6990.3354</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>3999.0634</v>
+        <v>6680.4932</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.879</v>
+        <v>2.2028</v>
       </c>
       <c r="AB11" t="n">
-        <v>58.7947</v>
+        <v>307.6394</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.4424</v>
+        <v>0.2075</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.0638</v>
+        <v>14.499</v>
       </c>
       <c r="AE11" t="n">
-        <v>1621.7031</v>
+        <v>2275.0577</v>
       </c>
       <c r="AF11" t="n">
-        <v>55.9445</v>
+        <v>81.209</v>
       </c>
       <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.055</v>
+        <v>1.5787</v>
       </c>
       <c r="C12" t="n">
-        <v>640.539</v>
+        <v>1149.9263</v>
       </c>
       <c r="D12" t="n">
-        <v>1.194</v>
+        <v>0.7625</v>
       </c>
       <c r="E12" t="n">
-        <v>235.976</v>
+        <v>29.6667</v>
       </c>
       <c r="F12" t="n">
-        <v>12451.992</v>
+        <v>14449.4918</v>
       </c>
       <c r="G12" t="n">
-        <v>46.616</v>
+        <v>53.9711</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>24208.41</v>
+        <v>28707.0539</v>
       </c>
       <c r="J12" t="n">
-        <v>0.569</v>
+        <v>0.421</v>
       </c>
       <c r="K12" t="n">
-        <v>930.946</v>
+        <v>632.2975</v>
       </c>
       <c r="L12" t="n">
-        <v>1654.793</v>
+        <v>3282.3677</v>
       </c>
       <c r="M12" t="n">
-        <v>0.118</v>
+        <v>0.2191</v>
       </c>
       <c r="N12" t="n">
-        <v>13519.363</v>
+        <v>17269.1863</v>
       </c>
       <c r="O12" t="n">
-        <v>28.913</v>
+        <v>67.0401</v>
       </c>
       <c r="P12" t="n">
-        <v>12603.88</v>
+        <v>16020.9745</v>
       </c>
       <c r="Q12" t="n">
-        <v>40754</v>
+        <v>50883.9756</v>
       </c>
       <c r="R12" t="n">
-        <v>14106.786</v>
+        <v>17731.8593</v>
       </c>
       <c r="S12" t="n">
-        <v>5.523</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>172.077</v>
+        <v>615.8958</v>
       </c>
       <c r="U12" t="n">
-        <v>3026.231</v>
+        <v>4907.7355</v>
       </c>
       <c r="V12" t="n">
-        <v>11.838</v>
+        <v>255.1534</v>
       </c>
       <c r="W12" t="n">
-        <v>2790.176</v>
+        <v>3982.6234</v>
       </c>
       <c r="X12" t="n">
-        <v>6138.441</v>
+        <v>8078.0046</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.634</v>
+        <v>5.5144</v>
       </c>
       <c r="Z12" t="n">
-        <v>6045.513</v>
+        <v>7708.9799</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.384</v>
+        <v>41.142</v>
       </c>
       <c r="AB12" t="n">
-        <v>89.911</v>
+        <v>322.3687</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6401</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.846</v>
+        <v>12.0206</v>
       </c>
       <c r="AE12" t="n">
-        <v>2966.271</v>
+        <v>2183.4806</v>
       </c>
       <c r="AF12" t="n">
-        <v>49.239</v>
+        <v>67.98860000000001</v>
       </c>
       <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.7</v>
+        <v>1.0049</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.4</v>
+        <v>727.849</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4</v>
+        <v>0.2047</v>
       </c>
       <c r="E13" t="n">
-        <v>207.5</v>
+        <v>50.7298</v>
       </c>
       <c r="F13" t="n">
-        <v>11926</v>
+        <v>19997.0523</v>
       </c>
       <c r="G13" t="n">
-        <v>24.3</v>
+        <v>60.1422</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>23176.5</v>
+        <v>38588.392</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>212.1</v>
+        <v>874.2381</v>
       </c>
       <c r="L13" t="n">
-        <v>2445.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>3853.781</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7030999999999999</v>
+      </c>
       <c r="N13" t="n">
-        <v>15373.5</v>
+        <v>20390.0834</v>
       </c>
       <c r="O13" t="n">
-        <v>75.40000000000001</v>
+        <v>101.5395</v>
       </c>
       <c r="P13" t="n">
-        <v>14075.6</v>
+        <v>19508.9602</v>
       </c>
       <c r="Q13" t="n">
-        <v>42219.2</v>
+        <v>64339.2147</v>
       </c>
       <c r="R13" t="n">
-        <v>14371.1</v>
+        <v>23850.8333</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>2.0799</v>
       </c>
       <c r="T13" t="n">
-        <v>303.4</v>
+        <v>466.5487</v>
       </c>
       <c r="U13" t="n">
-        <v>3669.2</v>
+        <v>5360.7395</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2</v>
+        <v>357.6433</v>
       </c>
       <c r="W13" t="n">
-        <v>3175.9</v>
+        <v>4474.3255</v>
       </c>
       <c r="X13" t="n">
-        <v>5710.5</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>11716.8448</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.9754</v>
+      </c>
       <c r="Z13" t="n">
-        <v>5549.6</v>
+        <v>11216.848</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.7</v>
+        <v>66.5637</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.2</v>
+        <v>425.4577</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8</v>
+        <v>1.1325</v>
       </c>
       <c r="AD13" t="n">
-        <v>20.5</v>
+        <v>8.7193</v>
       </c>
       <c r="AE13" t="n">
-        <v>2802.8</v>
+        <v>2078.5206</v>
       </c>
       <c r="AF13" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="AG13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>20.0694</v>
-      </c>
-      <c r="C14" t="n">
-        <v>871.3638</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="E14" t="n">
-        <v>200.126</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15459.6313</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.9852</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>28669.4011</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2075</v>
-      </c>
-      <c r="K14" t="n">
-        <v>191.7945</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3656.323</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>16045.0121</v>
-      </c>
-      <c r="O14" t="n">
-        <v>227.6153</v>
-      </c>
-      <c r="P14" t="n">
-        <v>14725.8375</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>48241.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>19115.9541</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.2923</v>
-      </c>
-      <c r="T14" t="n">
-        <v>589.6789</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3527.3625</v>
-      </c>
-      <c r="V14" t="n">
-        <v>52.8373</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2875.5687</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6990.3354</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>6680.4932</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.2028</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>307.6394</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.2075</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.499</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2275.0577</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81.209</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.5787</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1149.9263</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7625</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29.6667</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14449.4918</v>
-      </c>
-      <c r="G15" t="n">
-        <v>53.9711</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>28707.0539</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="K15" t="n">
-        <v>632.2975</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3282.3677</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2191</v>
-      </c>
-      <c r="N15" t="n">
-        <v>17269.1863</v>
-      </c>
-      <c r="O15" t="n">
-        <v>67.0401</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16020.9745</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>50883.9756</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17731.8593</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.09229999999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>615.8958</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4907.7355</v>
-      </c>
-      <c r="V15" t="n">
-        <v>255.1534</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3982.6234</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8078.0046</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>5.5144</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7708.9799</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>41.142</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>322.3687</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.6401</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12.0206</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2183.4806</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67.98860000000001</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
+        <v>57.8987</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.4295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
